--- a/data/trans_orig/P37C2_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P37C2_2023-Dificultad-trans_orig.xlsx
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8365</v>
+        <v>8433</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.004997568026412386</v>
+        <v>0.004997568026412387</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01723098746444387</v>
+        <v>0.01736959556310904</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -762,19 +762,19 @@
         <v>4489</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1413</v>
+        <v>1454</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11183</v>
+        <v>11509</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007240320549393375</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0022800255438578</v>
+        <v>0.0023447953570202</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01803889245544694</v>
+        <v>0.0185641123021138</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -783,19 +783,19 @@
         <v>6915</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2921</v>
+        <v>2915</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15844</v>
+        <v>14784</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.006255344241572564</v>
+        <v>0.006255344241572565</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002642383934191672</v>
+        <v>0.002636758199975612</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01433252275974956</v>
+        <v>0.01337384665598636</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>13633</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7288</v>
+        <v>7464</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22804</v>
+        <v>22037</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02808100033461188</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01501115934201326</v>
+        <v>0.01537530064314087</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04697158207425099</v>
+        <v>0.04539146058647441</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -833,19 +833,19 @@
         <v>8581</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4306</v>
+        <v>4249</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16428</v>
+        <v>16561</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01384193164504135</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.006946494352436112</v>
+        <v>0.0068536039416854</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02649841279232608</v>
+        <v>0.02671384613590741</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -854,19 +854,19 @@
         <v>22214</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13764</v>
+        <v>14593</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>33743</v>
+        <v>33163</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02009547284539562</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01245120059033343</v>
+        <v>0.01320084017870898</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03052516546459619</v>
+        <v>0.02999988755230988</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>60569</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>46050</v>
+        <v>45697</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>80000</v>
+        <v>81123</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1247593641669123</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0948530603930168</v>
+        <v>0.09412659681060623</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1647845264137485</v>
+        <v>0.1670968339431617</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>70</v>
@@ -904,19 +904,19 @@
         <v>53616</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>42265</v>
+        <v>40607</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>70222</v>
+        <v>68559</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08648596281349676</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06817605781798965</v>
+        <v>0.06550110144079094</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1132715175003574</v>
+        <v>0.1105892256836522</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>123</v>
@@ -925,19 +925,19 @@
         <v>114185</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>95228</v>
+        <v>95417</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>137973</v>
+        <v>139973</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1032949478292505</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08614564085702421</v>
+        <v>0.08631693833260291</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.124814561420532</v>
+        <v>0.1266234822894833</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>110065</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>91035</v>
+        <v>89261</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>132464</v>
+        <v>130282</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2267114071699155</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1875149210471398</v>
+        <v>0.1838588059915395</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2728489518925834</v>
+        <v>0.2683538848857809</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>140</v>
@@ -975,19 +975,19 @@
         <v>104619</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>89241</v>
+        <v>88241</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>121380</v>
+        <v>120679</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1687561806045556</v>
+        <v>0.1687561806045557</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1439494923421557</v>
+        <v>0.1423369544206079</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.195792053418968</v>
+        <v>0.1946607997457184</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>229</v>
@@ -996,19 +996,19 @@
         <v>214684</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>190947</v>
+        <v>190722</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>246614</v>
+        <v>245828</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1942090669557398</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1727361237444772</v>
+        <v>0.172532434964551</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.223093906283241</v>
+        <v>0.2223828083551676</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>298791</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>273164</v>
+        <v>275174</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>320374</v>
+        <v>321500</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6154506603021479</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5626629487891107</v>
+        <v>0.5668039459170185</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6599058184337935</v>
+        <v>0.6622250890840197</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>631</v>
@@ -1046,19 +1046,19 @@
         <v>448638</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>426245</v>
+        <v>427787</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>468338</v>
+        <v>469306</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.723675604387513</v>
+        <v>0.7236756043875129</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6875544157113257</v>
+        <v>0.6900420946005592</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7554516210502696</v>
+        <v>0.7570129891986146</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>921</v>
@@ -1067,19 +1067,19 @@
         <v>747429</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>710084</v>
+        <v>714926</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>777700</v>
+        <v>777621</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6761451681280416</v>
+        <v>0.6761451681280415</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6423613330891728</v>
+        <v>0.6467423727702497</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.703529236780719</v>
+        <v>0.7034573932011731</v>
       </c>
     </row>
     <row r="9">
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5837</v>
+        <v>5287</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001088452105360674</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.006097651337757861</v>
+        <v>0.00552340422256065</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1192,19 +1192,19 @@
         <v>2869</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1037</v>
+        <v>912</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6710</v>
+        <v>6284</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.002577794074217017</v>
+        <v>0.002577794074217018</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0009317919023968616</v>
+        <v>0.0008194471449840779</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.006028359081473543</v>
+        <v>0.005645025825016661</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1213,19 +1213,19 @@
         <v>3911</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1554</v>
+        <v>1490</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8346</v>
+        <v>8691</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001889196153725069</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0007507336178266855</v>
+        <v>0.0007196647341010734</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.00403128433392166</v>
+        <v>0.004197941433374361</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>7562</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3561</v>
+        <v>3738</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14672</v>
+        <v>15212</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.007900168565675717</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003720563488071601</v>
+        <v>0.003905376266086088</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01532731549903677</v>
+        <v>0.01589189977349427</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -1263,19 +1263,19 @@
         <v>4701</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1929</v>
+        <v>2049</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9858</v>
+        <v>9666</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.004222881623861118</v>
+        <v>0.004222881623861119</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00173326362155218</v>
+        <v>0.001841076321233313</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.008855941083730029</v>
+        <v>0.008683266922714363</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>15</v>
@@ -1284,19 +1284,19 @@
         <v>12263</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6508</v>
+        <v>6712</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>20650</v>
+        <v>19981</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.005923076873935329</v>
+        <v>0.005923076873935328</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.003143282623485348</v>
+        <v>0.003241876025831466</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.009973934021501416</v>
+        <v>0.009650788288059247</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>52198</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>37868</v>
+        <v>38534</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>70347</v>
+        <v>68965</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05452986973803777</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03955952330108504</v>
+        <v>0.04025569612147733</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07348937337434377</v>
+        <v>0.07204623159920434</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>68</v>
@@ -1334,19 +1334,19 @@
         <v>46014</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>36097</v>
+        <v>35485</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>58255</v>
+        <v>58815</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.04133706665750639</v>
+        <v>0.0413370666575064</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03242805985689874</v>
+        <v>0.03187808262304608</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0523340643453868</v>
+        <v>0.05283751273754325</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>114</v>
@@ -1355,19 +1355,19 @@
         <v>98212</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>80831</v>
+        <v>82029</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>119082</v>
+        <v>118042</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.04743676501871597</v>
+        <v>0.04743676501871595</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03904192274531076</v>
+        <v>0.03962021190029121</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05751727663089845</v>
+        <v>0.05701499747450447</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>245377</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>212671</v>
+        <v>216356</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>275596</v>
+        <v>277961</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2563381524772638</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2221711554281843</v>
+        <v>0.2260213668316915</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2879068652192719</v>
+        <v>0.2903776283856557</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>332</v>
@@ -1405,19 +1405,19 @@
         <v>235022</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>213650</v>
+        <v>212137</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>262153</v>
+        <v>261645</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2111347740438509</v>
+        <v>0.211134774043851</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1919352286429093</v>
+        <v>0.1905755410437004</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.23550824157997</v>
+        <v>0.2350523410139867</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>549</v>
@@ -1426,19 +1426,19 @@
         <v>480399</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>443901</v>
+        <v>443960</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>520044</v>
+        <v>522354</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.232034576130514</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2144058218375213</v>
+        <v>0.2144343403426414</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2511835096709523</v>
+        <v>0.2522992782712468</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>651060</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>616173</v>
+        <v>618979</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>683095</v>
+        <v>685712</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6801433571136621</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.643698534783507</v>
+        <v>0.6466291514894998</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7136098195089862</v>
+        <v>0.7163431472588387</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1191</v>
@@ -1476,19 +1476,19 @@
         <v>824531</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>799200</v>
+        <v>796988</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>850584</v>
+        <v>848836</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7407274836005645</v>
+        <v>0.7407274836005646</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.71797129601728</v>
+        <v>0.7159834214118547</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7641327144466528</v>
+        <v>0.7625621643532494</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1825</v>
@@ -1497,19 +1497,19 @@
         <v>1475591</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1432864</v>
+        <v>1426579</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1514298</v>
+        <v>1513623</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7127163858231096</v>
+        <v>0.7127163858231097</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6920793356322896</v>
+        <v>0.6890434892223188</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7314120394383024</v>
+        <v>0.7310860204973878</v>
       </c>
     </row>
     <row r="15">
@@ -1604,16 +1604,16 @@
         <v>833</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8876</v>
+        <v>8323</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00334420287147773</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0007985958189789408</v>
+        <v>0.0007980415596999753</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.008506615591970695</v>
+        <v>0.007976506595838507</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1625,16 +1625,16 @@
         <v>693</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6257</v>
+        <v>6299</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002213262485587261</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0006659153844854619</v>
+        <v>0.0006657863347930462</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.006008226751637888</v>
+        <v>0.006048513558578189</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1643,19 +1643,19 @@
         <v>5794</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2516</v>
+        <v>2277</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12344</v>
+        <v>11865</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002779299158462364</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001206776289990321</v>
+        <v>0.001092395487656225</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.005920986537117268</v>
+        <v>0.005690935668144207</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>10711</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5398</v>
+        <v>5412</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21619</v>
+        <v>21110</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01026513103068825</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.005172928172226974</v>
+        <v>0.005186403975363961</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02071873483659473</v>
+        <v>0.02023098633154984</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1693,19 +1693,19 @@
         <v>2928</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>989</v>
+        <v>1114</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6426</v>
+        <v>7079</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.002811987415155659</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.000950010103953581</v>
+        <v>0.00106943333561716</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.006170751584451154</v>
+        <v>0.0067980423602963</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>15</v>
@@ -1714,19 +1714,19 @@
         <v>13640</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7715</v>
+        <v>7590</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24749</v>
+        <v>25125</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.006542292449116107</v>
+        <v>0.006542292449116106</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.003700393030432154</v>
+        <v>0.00364044459398836</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01187109378310397</v>
+        <v>0.01205143553874801</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>36273</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>25267</v>
+        <v>25347</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>50600</v>
+        <v>50536</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0347620859528395</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02421431665350952</v>
+        <v>0.02429134818932217</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04849248557319152</v>
+        <v>0.04843063271548988</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>43</v>
@@ -1764,19 +1764,19 @@
         <v>34025</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>23805</v>
+        <v>24711</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>48584</v>
+        <v>46844</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03267357562608364</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02285954822263005</v>
+        <v>0.02372881073773269</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04665345273973276</v>
+        <v>0.04498316726350478</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>79</v>
@@ -1785,19 +1785,19 @@
         <v>70298</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>54450</v>
+        <v>53473</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>89826</v>
+        <v>88480</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03371887690930855</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02611698103423385</v>
+        <v>0.02564837848001011</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04308544155869591</v>
+        <v>0.04243983769887877</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>209017</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>182679</v>
+        <v>183051</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>237098</v>
+        <v>236482</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2003111452795799</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1750698924915759</v>
+        <v>0.1754262036759113</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2272216283201809</v>
+        <v>0.2266313850874308</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>281</v>
@@ -1835,19 +1835,19 @@
         <v>188166</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>168107</v>
+        <v>165823</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>210837</v>
+        <v>209741</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1806897743176636</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1614274227389638</v>
+        <v>0.1592344569592175</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2024603018236165</v>
+        <v>0.201407512233501</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>480</v>
@@ -1856,19 +1856,19 @@
         <v>397183</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>359615</v>
+        <v>363573</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>437021</v>
+        <v>435557</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1905102880026412</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.172490264568104</v>
+        <v>0.1743891008935545</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2096182992015452</v>
+        <v>0.208916155355317</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>783973</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>752856</v>
+        <v>754132</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>814426</v>
+        <v>811364</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7513174348654147</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7214967343996288</v>
+        <v>0.7227192646209634</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7805019001223512</v>
+        <v>0.7775682335265784</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1175</v>
@@ -1906,19 +1906,19 @@
         <v>813951</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>788481</v>
+        <v>790568</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>835718</v>
+        <v>839084</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7816114001555098</v>
+        <v>0.7816114001555099</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7571531152269787</v>
+        <v>0.7591570064493229</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8025135659055025</v>
+        <v>0.8057458876938242</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1953</v>
@@ -1927,19 +1927,19 @@
         <v>1597924</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1557885</v>
+        <v>1558455</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1635940</v>
+        <v>1636665</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7664492434804717</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7472445159131135</v>
+        <v>0.7475178519618232</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7846838111765591</v>
+        <v>0.7850316474253709</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>4422</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1342</v>
+        <v>1465</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11767</v>
+        <v>12023</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.004571253872143466</v>
+        <v>0.004571253872143467</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00138693973852974</v>
+        <v>0.001514030817253054</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01216442151961373</v>
+        <v>0.01242910729048657</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -2052,19 +2052,19 @@
         <v>4056</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12834</v>
+        <v>13173</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.004496778221510262</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0006827395842318645</v>
+        <v>0.0006796565974538024</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01422979385128897</v>
+        <v>0.01460580634013666</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -2073,19 +2073,19 @@
         <v>8478</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3463</v>
+        <v>3701</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17717</v>
+        <v>18128</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.004535319596485906</v>
+        <v>0.004535319596485907</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001852812894926754</v>
+        <v>0.001980113559640658</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.009477876068329305</v>
+        <v>0.009698010635160672</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>10972</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5931</v>
+        <v>5981</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>19402</v>
+        <v>19191</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01134218649002584</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.00613155154850591</v>
+        <v>0.006182344790930585</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02005665382196704</v>
+        <v>0.01983881956674035</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -2123,19 +2123,19 @@
         <v>5315</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2323</v>
+        <v>2458</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>11115</v>
+        <v>10871</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.005892727919422951</v>
+        <v>0.00589272791942295</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.002576038592653001</v>
+        <v>0.00272532653919741</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01232310786861639</v>
+        <v>0.0120530649961037</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>20</v>
@@ -2144,19 +2144,19 @@
         <v>16287</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10354</v>
+        <v>9856</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>25871</v>
+        <v>25718</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.008712839249745523</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.005539069989713895</v>
+        <v>0.005272818369220594</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01383979145167022</v>
+        <v>0.01375796815893141</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>54340</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>39525</v>
+        <v>38263</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>75036</v>
+        <v>75598</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05617354909088337</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04085853493741059</v>
+        <v>0.03955342939928004</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07756742356151487</v>
+        <v>0.07814827752941017</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>43</v>
@@ -2194,19 +2194,19 @@
         <v>32186</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>23164</v>
+        <v>23058</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>44766</v>
+        <v>45079</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0356857063146397</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02568249891667065</v>
+        <v>0.02556497421460284</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0496332531204865</v>
+        <v>0.04998110159231809</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>86</v>
@@ -2215,19 +2215,19 @@
         <v>86526</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>68919</v>
+        <v>68962</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>109980</v>
+        <v>112882</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.04628822706024838</v>
+        <v>0.04628822706024839</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03686903477763625</v>
+        <v>0.03689199227205875</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05883536464464269</v>
+        <v>0.0603875864273093</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>207158</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>180016</v>
+        <v>182154</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>234986</v>
+        <v>237913</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2141465857012938</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1860894270748501</v>
+        <v>0.1882994024561939</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2429132670228681</v>
+        <v>0.2459397062751174</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>380</v>
@@ -2265,19 +2265,19 @@
         <v>213380</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>192067</v>
+        <v>193239</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>235192</v>
+        <v>237239</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2365819023926723</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2129513564194658</v>
+        <v>0.2142508608230402</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2607659381349547</v>
+        <v>0.2630359494807366</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>603</v>
@@ -2286,19 +2286,19 @@
         <v>420538</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>385870</v>
+        <v>383033</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>456882</v>
+        <v>452248</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2249715579922134</v>
+        <v>0.2249715579922135</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2064255544447254</v>
+        <v>0.2049082796748442</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2444146609458132</v>
+        <v>0.2419355098451736</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>690473</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>659977</v>
+        <v>658998</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>721811</v>
+        <v>719359</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7137664248456537</v>
+        <v>0.7137664248456536</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.682241723224574</v>
+        <v>0.6812301476428011</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7461620307537964</v>
+        <v>0.7436273851109797</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>875</v>
@@ -2336,19 +2336,19 @@
         <v>646992</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>623899</v>
+        <v>622413</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>672471</v>
+        <v>669263</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7173428851517548</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6917394317841855</v>
+        <v>0.6900916832581124</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7455927268039326</v>
+        <v>0.7420360393917679</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1533</v>
@@ -2357,19 +2357,19 @@
         <v>1337464</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1293974</v>
+        <v>1299775</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1373821</v>
+        <v>1376949</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7154920561013067</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6922269105126602</v>
+        <v>0.6953303513841389</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7349418741388849</v>
+        <v>0.7366151385067862</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>11380</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5820</v>
+        <v>5969</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>20171</v>
+        <v>20644</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.003295092457780395</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.001685275728996516</v>
+        <v>0.001728428155974611</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.005840786042176819</v>
+        <v>0.005977742422643167</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -2482,19 +2482,19 @@
         <v>13719</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>7611</v>
+        <v>7237</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>22887</v>
+        <v>23251</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.003731556848542805</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.002070211789401616</v>
+        <v>0.001968564093925374</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.006225280531906257</v>
+        <v>0.006324388109450589</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>27</v>
@@ -2503,19 +2503,19 @@
         <v>25098</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>16132</v>
+        <v>16959</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>38160</v>
+        <v>37734</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.003520145076930674</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.002262636160533226</v>
+        <v>0.002378593359352242</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.005352071459453166</v>
+        <v>0.005292312753205802</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>42879</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>31359</v>
+        <v>31484</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>57794</v>
+        <v>57106</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.01241578213454561</v>
+        <v>0.0124157821345456</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.009080173782245231</v>
+        <v>0.009116509073575557</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01673470715161775</v>
+        <v>0.01653538941801458</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>30</v>
@@ -2553,19 +2553,19 @@
         <v>21525</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>15050</v>
+        <v>15116</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>31490</v>
+        <v>31205</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.005854941656380735</v>
+        <v>0.005854941656380736</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.004093765934579489</v>
+        <v>0.004111529046273759</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.008565374117158643</v>
+        <v>0.008488071271460999</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>73</v>
@@ -2574,19 +2574,19 @@
         <v>64404</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>48983</v>
+        <v>50124</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>81487</v>
+        <v>81249</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.009032838726816556</v>
+        <v>0.009032838726816554</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.006870032815369318</v>
+        <v>0.007030061607601015</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01142885799020798</v>
+        <v>0.01139543340987255</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>203380</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>176699</v>
+        <v>171500</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>238256</v>
+        <v>240349</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05889011549247686</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05116442288479858</v>
+        <v>0.04965891659682846</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06898876855281282</v>
+        <v>0.06959474661033765</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>224</v>
@@ -2624,19 +2624,19 @@
         <v>165842</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>144826</v>
+        <v>142905</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>192451</v>
+        <v>190360</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04510998681228857</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03939351376494756</v>
+        <v>0.0388709583883687</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05234798196699896</v>
+        <v>0.0517790594908661</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>402</v>
@@ -2645,19 +2645,19 @@
         <v>369222</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>327701</v>
+        <v>331478</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>410037</v>
+        <v>408206</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.05178471556217092</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04596135374433544</v>
+        <v>0.04649098874299887</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05750922916921462</v>
+        <v>0.05725244480292341</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>771617</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>721659</v>
+        <v>718712</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>833988</v>
+        <v>826436</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2234270736033135</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.208961242435183</v>
+        <v>0.2081080483344606</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2414871390909889</v>
+        <v>0.2393003028463313</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1133</v>
@@ -2695,19 +2695,19 @@
         <v>741187</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>702452</v>
+        <v>697455</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>783690</v>
+        <v>784473</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2016076003295793</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1910715191542205</v>
+        <v>0.1897123411074116</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.213168698691607</v>
+        <v>0.2133815701889647</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1861</v>
@@ -2716,19 +2716,19 @@
         <v>1512804</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1444524</v>
+        <v>1447517</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1574519</v>
+        <v>1589546</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2121763743191044</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2025999284506002</v>
+        <v>0.2030197240337248</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2208321554444664</v>
+        <v>0.2229398262066957</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>2424297</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2357830</v>
+        <v>2364812</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2482106</v>
+        <v>2479343</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.7019719363118837</v>
+        <v>0.7019719363118835</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.682726036982568</v>
+        <v>0.6847476305770809</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7187109624968397</v>
+        <v>0.7179111126833766</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3872</v>
@@ -2766,19 +2766,19 @@
         <v>2734112</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2688160</v>
+        <v>2681987</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2781352</v>
+        <v>2780441</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7436959143532086</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7311968034789956</v>
+        <v>0.7295175920046688</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7565454746581127</v>
+        <v>0.7562978638965938</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6232</v>
@@ -2787,19 +2787,19 @@
         <v>5158408</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5075856</v>
+        <v>5073156</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5234239</v>
+        <v>5227304</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.7234859263149773</v>
+        <v>0.7234859263149774</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7119077602483022</v>
+        <v>0.7115291232153208</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7341215476595473</v>
+        <v>0.7331489225756147</v>
       </c>
     </row>
     <row r="33">
